--- a/Proyecto_Fundamentos_Programación/Datos_Prueba_Modelo_Real.xlsx
+++ b/Proyecto_Fundamentos_Programación/Datos_Prueba_Modelo_Real.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taller2\Proyecto_Fundamentos_Programación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4F0F1A-CEDE-4B85-82AE-52DE7ECFEDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B25BF7E-3E39-4AE2-A280-BECCB87B08E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
   <si>
     <t>brand_name</t>
   </si>
@@ -533,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1999,7 +1999,7 @@
         <v>8</v>
       </c>
       <c r="K24">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="L24">
         <v>6.39</v>
@@ -2027,6 +2027,626 @@
       </c>
       <c r="T24">
         <v>1080</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>2.84</v>
+      </c>
+      <c r="H25">
+        <v>4400</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>12</v>
+      </c>
+      <c r="K25">
+        <v>1024</v>
+      </c>
+      <c r="L25">
+        <v>7.6</v>
+      </c>
+      <c r="M25">
+        <v>120</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25">
+        <v>12</v>
+      </c>
+      <c r="Q25">
+        <v>10</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>2208</v>
+      </c>
+      <c r="T25">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>2.84</v>
+      </c>
+      <c r="H26">
+        <v>4400</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>1024</v>
+      </c>
+      <c r="L26">
+        <v>7.6</v>
+      </c>
+      <c r="M26">
+        <v>120</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26">
+        <v>12</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>2208</v>
+      </c>
+      <c r="T26">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>3.22</v>
+      </c>
+      <c r="H27">
+        <v>4352</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>1024</v>
+      </c>
+      <c r="L27">
+        <v>6.7</v>
+      </c>
+      <c r="M27">
+        <v>120</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27">
+        <v>12</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>2778</v>
+      </c>
+      <c r="T27">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>3.22</v>
+      </c>
+      <c r="H28">
+        <v>3279</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>1024</v>
+      </c>
+      <c r="L28">
+        <v>6.1</v>
+      </c>
+      <c r="M28">
+        <v>60</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28">
+        <v>12</v>
+      </c>
+      <c r="Q28">
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>2532</v>
+      </c>
+      <c r="T28">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>3.22</v>
+      </c>
+      <c r="H29">
+        <v>4325</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>1024</v>
+      </c>
+      <c r="L29">
+        <v>6.7</v>
+      </c>
+      <c r="M29">
+        <v>60</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29">
+        <v>12</v>
+      </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>2778</v>
+      </c>
+      <c r="T29">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>3.2</v>
+      </c>
+      <c r="H30">
+        <v>6000</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>1024</v>
+      </c>
+      <c r="L30">
+        <v>6.78</v>
+      </c>
+      <c r="M30">
+        <v>165</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>38</v>
+      </c>
+      <c r="P30">
+        <v>50</v>
+      </c>
+      <c r="Q30">
+        <v>12</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>2448</v>
+      </c>
+      <c r="T30">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>3.13</v>
+      </c>
+      <c r="H31">
+        <v>4500</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>1024</v>
+      </c>
+      <c r="L31">
+        <v>6.76</v>
+      </c>
+      <c r="M31">
+        <v>120</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31">
+        <v>64</v>
+      </c>
+      <c r="Q31">
+        <v>13</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>3200</v>
+      </c>
+      <c r="T31">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>3.2</v>
+      </c>
+      <c r="H32">
+        <v>4700</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>1024</v>
+      </c>
+      <c r="L32">
+        <v>6.74</v>
+      </c>
+      <c r="M32">
+        <v>120</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32">
+        <v>50</v>
+      </c>
+      <c r="Q32">
+        <v>13</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>2616</v>
+      </c>
+      <c r="T32">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>5000</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <v>1024</v>
+      </c>
+      <c r="L33">
+        <v>6.6</v>
+      </c>
+      <c r="M33">
+        <v>240</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>38</v>
+      </c>
+      <c r="P33">
+        <v>47.2</v>
+      </c>
+      <c r="Q33">
+        <v>13</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>2730</v>
+      </c>
+      <c r="T33">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>2.84</v>
+      </c>
+      <c r="H34">
+        <v>4000</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>8</v>
+      </c>
+      <c r="K34">
+        <v>1024</v>
+      </c>
+      <c r="L34">
+        <v>7.4</v>
+      </c>
+      <c r="M34">
+        <v>60</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>38</v>
+      </c>
+      <c r="P34">
+        <v>64</v>
+      </c>
+      <c r="Q34">
+        <v>16</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>3200</v>
+      </c>
+      <c r="T34">
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
